--- a/petdata_v4.xlsx
+++ b/petdata_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PetData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5934169-EDE1-4EE3-91AA-8BC5416BC4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135579C-D217-4D16-9759-B4F5696EEB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="336">
   <si>
     <t>sample_id</t>
   </si>
@@ -794,9 +794,6 @@
     <t>Gwinseon-gu</t>
   </si>
   <si>
-    <t>암</t>
-  </si>
-  <si>
     <t>Gangwondowonju</t>
   </si>
   <si>
@@ -1407,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="N608" sqref="N608"/>
+    <sheetView tabSelected="1" topLeftCell="D217" workbookViewId="0">
+      <selection activeCell="Q234" sqref="Q234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2438,7 +2435,7 @@
         <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H7" t="s">
         <v>162</v>
@@ -19581,7 +19578,7 @@
         <v>77</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D135" t="s">
         <v>150</v>
@@ -26317,7 +26314,7 @@
         <v>154</v>
       </c>
       <c r="D188" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -34156,7 +34153,7 @@
         <v>78</v>
       </c>
       <c r="D245" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -36128,7 +36125,7 @@
         <v>80</v>
       </c>
       <c r="G259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I259">
         <v>4</v>
@@ -37197,7 +37194,7 @@
         <v>77</v>
       </c>
       <c r="C267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D267" t="s">
         <v>150</v>
@@ -38415,7 +38412,7 @@
         <v>77</v>
       </c>
       <c r="C276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D276" t="s">
         <v>79</v>
@@ -38695,7 +38692,7 @@
         <v>77</v>
       </c>
       <c r="C278" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D278" t="s">
         <v>150</v>
@@ -40026,7 +40023,7 @@
         <v>77</v>
       </c>
       <c r="C288" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D288" t="s">
         <v>79</v>
@@ -40154,7 +40151,7 @@
         <v>77</v>
       </c>
       <c r="C289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D289" t="s">
         <v>79</v>
@@ -40297,7 +40294,7 @@
         <v>77</v>
       </c>
       <c r="C290" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D290" t="s">
         <v>79</v>
@@ -40437,7 +40434,7 @@
         <v>77</v>
       </c>
       <c r="C291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D291" t="s">
         <v>150</v>
@@ -40598,7 +40595,7 @@
         <v>205</v>
       </c>
       <c r="H292" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I292">
         <v>3</v>
@@ -40851,10 +40848,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
+        <v>266</v>
+      </c>
+      <c r="C294" t="s">
         <v>267</v>
-      </c>
-      <c r="C294" t="s">
-        <v>268</v>
       </c>
       <c r="D294" t="s">
         <v>79</v>
@@ -41250,7 +41247,7 @@
         <v>77</v>
       </c>
       <c r="C297" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D297" t="s">
         <v>79</v>
@@ -42491,7 +42488,7 @@
         <v>178</v>
       </c>
       <c r="H307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I307">
         <v>4</v>
@@ -43318,7 +43315,7 @@
         <v>77</v>
       </c>
       <c r="C314" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D314" t="s">
         <v>150</v>
@@ -43794,7 +43791,7 @@
         <v>77</v>
       </c>
       <c r="C318" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D318" t="s">
         <v>150</v>
@@ -43928,7 +43925,7 @@
         <v>151</v>
       </c>
       <c r="G319" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R319">
         <v>2</v>
@@ -44038,7 +44035,7 @@
         <v>77</v>
       </c>
       <c r="C320" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D320" t="s">
         <v>79</v>
@@ -44630,7 +44627,7 @@
         <v>77</v>
       </c>
       <c r="C325" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D325" t="s">
         <v>150</v>
@@ -45383,7 +45380,7 @@
         <v>77</v>
       </c>
       <c r="C331" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D331" t="s">
         <v>150</v>
@@ -45505,7 +45502,7 @@
         <v>77</v>
       </c>
       <c r="C332" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D332" t="s">
         <v>79</v>
@@ -45758,7 +45755,7 @@
         <v>77</v>
       </c>
       <c r="C334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D334" t="s">
         <v>150</v>
@@ -47856,7 +47853,7 @@
         <v>77</v>
       </c>
       <c r="C351" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D351" t="s">
         <v>150</v>
@@ -47871,7 +47868,7 @@
         <v>196</v>
       </c>
       <c r="H351" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -48228,7 +48225,7 @@
         <v>77</v>
       </c>
       <c r="C354" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D354" t="s">
         <v>150</v>
@@ -48603,7 +48600,7 @@
         <v>220</v>
       </c>
       <c r="H357" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K357">
         <v>3</v>
@@ -49082,7 +49079,7 @@
         <v>77</v>
       </c>
       <c r="C361" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D361" t="s">
         <v>150</v>
@@ -49954,7 +49951,7 @@
         <v>155</v>
       </c>
       <c r="H368" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -50088,7 +50085,7 @@
         <v>155</v>
       </c>
       <c r="H369" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -50222,7 +50219,7 @@
         <v>155</v>
       </c>
       <c r="H370" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -50838,7 +50835,7 @@
         <v>77</v>
       </c>
       <c r="C375" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D375" t="s">
         <v>79</v>
@@ -50978,7 +50975,7 @@
         <v>155</v>
       </c>
       <c r="H376" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I376">
         <v>3</v>
@@ -51246,7 +51243,7 @@
         <v>155</v>
       </c>
       <c r="H378" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L378">
         <v>6</v>
@@ -51374,7 +51371,7 @@
         <v>151</v>
       </c>
       <c r="G379" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I379">
         <v>6</v>
@@ -51496,7 +51493,7 @@
         <v>155</v>
       </c>
       <c r="H380" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I380">
         <v>6</v>
@@ -51734,7 +51731,7 @@
         <v>151</v>
       </c>
       <c r="G382" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I382">
         <v>6</v>
@@ -51865,7 +51862,7 @@
         <v>155</v>
       </c>
       <c r="H383" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U383">
         <v>4</v>
@@ -51987,7 +51984,7 @@
         <v>155</v>
       </c>
       <c r="H384" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I384">
         <v>7</v>
@@ -52234,7 +52231,7 @@
         <v>155</v>
       </c>
       <c r="H386" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I386">
         <v>7</v>
@@ -52362,7 +52359,7 @@
         <v>155</v>
       </c>
       <c r="H387" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I387">
         <v>4</v>
@@ -52475,7 +52472,7 @@
         <v>155</v>
       </c>
       <c r="H388" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I388">
         <v>5</v>
@@ -52594,7 +52591,7 @@
         <v>155</v>
       </c>
       <c r="H389" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I389">
         <v>9</v>
@@ -53073,7 +53070,7 @@
         <v>155</v>
       </c>
       <c r="H393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M393">
         <v>8</v>
@@ -53189,7 +53186,7 @@
         <v>151</v>
       </c>
       <c r="G394" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I394">
         <v>4</v>
@@ -53302,7 +53299,7 @@
         <v>155</v>
       </c>
       <c r="H395" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I395">
         <v>3</v>
@@ -53421,7 +53418,7 @@
         <v>151</v>
       </c>
       <c r="G396" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L396">
         <v>5</v>
@@ -53540,7 +53537,7 @@
         <v>155</v>
       </c>
       <c r="H397" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q397">
         <v>5</v>
@@ -53656,7 +53653,7 @@
         <v>155</v>
       </c>
       <c r="H398" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X398">
         <v>4</v>
@@ -53763,7 +53760,7 @@
         <v>155</v>
       </c>
       <c r="H399" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I399">
         <v>3</v>
@@ -53882,7 +53879,7 @@
         <v>155</v>
       </c>
       <c r="H400" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I400">
         <v>3</v>
@@ -54013,7 +54010,7 @@
         <v>155</v>
       </c>
       <c r="H401" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K401">
         <v>1</v>
@@ -54126,7 +54123,7 @@
         <v>155</v>
       </c>
       <c r="H402" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I402">
         <v>4</v>
@@ -54236,7 +54233,7 @@
         <v>155</v>
       </c>
       <c r="H403" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AN403">
         <v>0</v>
@@ -54322,7 +54319,7 @@
         <v>155</v>
       </c>
       <c r="H404" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I404">
         <v>5</v>
@@ -54444,7 +54441,7 @@
         <v>151</v>
       </c>
       <c r="G405" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I405">
         <v>4</v>
@@ -54673,7 +54670,7 @@
         <v>155</v>
       </c>
       <c r="H407" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K407">
         <v>3</v>
@@ -54789,7 +54786,7 @@
         <v>155</v>
       </c>
       <c r="H408" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I408">
         <v>5</v>
@@ -54899,7 +54896,7 @@
         <v>77</v>
       </c>
       <c r="C409" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D409" t="s">
         <v>79</v>
@@ -55006,7 +55003,7 @@
         <v>77</v>
       </c>
       <c r="C410" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D410" t="s">
         <v>79</v>
@@ -55256,7 +55253,7 @@
         <v>155</v>
       </c>
       <c r="H412" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I412">
         <v>8</v>
@@ -55387,7 +55384,7 @@
         <v>155</v>
       </c>
       <c r="H413" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I413">
         <v>5</v>
@@ -55515,7 +55512,7 @@
         <v>155</v>
       </c>
       <c r="H414" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K414">
         <v>4</v>
@@ -55619,7 +55616,7 @@
         <v>77</v>
       </c>
       <c r="C415" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D415" t="s">
         <v>150</v>
@@ -55634,7 +55631,7 @@
         <v>155</v>
       </c>
       <c r="H415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I415">
         <v>6</v>
@@ -55872,7 +55869,7 @@
         <v>155</v>
       </c>
       <c r="H417" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I417">
         <v>5</v>
@@ -56128,7 +56125,7 @@
         <v>155</v>
       </c>
       <c r="H419" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I419">
         <v>3</v>
@@ -56247,7 +56244,7 @@
         <v>155</v>
       </c>
       <c r="H420" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I420">
         <v>3</v>
@@ -56491,7 +56488,7 @@
         <v>155</v>
       </c>
       <c r="H422" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I422">
         <v>3</v>
@@ -56598,7 +56595,7 @@
         <v>77</v>
       </c>
       <c r="C423" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D423" t="s">
         <v>150</v>
@@ -56613,7 +56610,7 @@
         <v>155</v>
       </c>
       <c r="H423" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I423">
         <v>3</v>
@@ -56744,7 +56741,7 @@
         <v>155</v>
       </c>
       <c r="H424" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I424">
         <v>2</v>
@@ -56991,7 +56988,7 @@
         <v>77</v>
       </c>
       <c r="C426" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D426" t="s">
         <v>150</v>
@@ -57006,7 +57003,7 @@
         <v>155</v>
       </c>
       <c r="H426" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L426">
         <v>5</v>
@@ -57128,7 +57125,7 @@
         <v>155</v>
       </c>
       <c r="H427" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X427">
         <v>5</v>
@@ -57244,7 +57241,7 @@
         <v>155</v>
       </c>
       <c r="H428" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X428">
         <v>6</v>
@@ -57491,7 +57488,7 @@
         <v>151</v>
       </c>
       <c r="G430" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X430">
         <v>5</v>
@@ -57604,7 +57601,7 @@
         <v>77</v>
       </c>
       <c r="C431" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D431" t="s">
         <v>79</v>
@@ -57619,7 +57616,7 @@
         <v>155</v>
       </c>
       <c r="H431" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K431">
         <v>4</v>
@@ -57732,7 +57729,7 @@
         <v>77</v>
       </c>
       <c r="C432" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D432" t="s">
         <v>79</v>
@@ -57881,7 +57878,7 @@
         <v>155</v>
       </c>
       <c r="H433" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X433">
         <v>4</v>
@@ -58003,7 +58000,7 @@
         <v>155</v>
       </c>
       <c r="H434" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J434">
         <v>3</v>
@@ -58134,7 +58131,7 @@
         <v>155</v>
       </c>
       <c r="H435" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I435">
         <v>3</v>
@@ -58369,7 +58366,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I437">
         <v>4</v>
@@ -58503,7 +58500,7 @@
         <v>155</v>
       </c>
       <c r="H438" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X438">
         <v>4</v>
@@ -58625,7 +58622,7 @@
         <v>155</v>
       </c>
       <c r="H439" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I439">
         <v>4</v>
@@ -58756,7 +58753,7 @@
         <v>155</v>
       </c>
       <c r="H440" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I440">
         <v>3</v>
@@ -58884,7 +58881,7 @@
         <v>155</v>
       </c>
       <c r="H441" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I441">
         <v>4</v>
@@ -59012,7 +59009,7 @@
         <v>155</v>
       </c>
       <c r="H442" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I442">
         <v>3</v>
@@ -59137,7 +59134,7 @@
         <v>155</v>
       </c>
       <c r="H443" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U443">
         <v>3</v>
@@ -59256,7 +59253,7 @@
         <v>155</v>
       </c>
       <c r="H444" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I444">
         <v>5</v>
@@ -59387,7 +59384,7 @@
         <v>155</v>
       </c>
       <c r="H445" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I445">
         <v>7</v>
@@ -59509,7 +59506,7 @@
         <v>155</v>
       </c>
       <c r="H446" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I446">
         <v>7</v>
@@ -59628,7 +59625,7 @@
         <v>77</v>
       </c>
       <c r="C447" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D447" t="s">
         <v>79</v>
@@ -59643,7 +59640,7 @@
         <v>155</v>
       </c>
       <c r="H447" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I447">
         <v>7</v>
@@ -59789,7 +59786,7 @@
         <v>155</v>
       </c>
       <c r="H448" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I448">
         <v>5</v>
@@ -60060,7 +60057,7 @@
         <v>155</v>
       </c>
       <c r="H450" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U450">
         <v>3</v>
@@ -60557,7 +60554,7 @@
         <v>77</v>
       </c>
       <c r="C454" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D454" t="s">
         <v>150</v>
@@ -60572,7 +60569,7 @@
         <v>155</v>
       </c>
       <c r="H454" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K454">
         <v>3</v>
@@ -60685,7 +60682,7 @@
         <v>155</v>
       </c>
       <c r="H455" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I455">
         <v>3</v>
@@ -60780,7 +60777,7 @@
         <v>77</v>
       </c>
       <c r="C456" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D456" t="s">
         <v>150</v>
@@ -60795,7 +60792,7 @@
         <v>155</v>
       </c>
       <c r="H456" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K456">
         <v>3</v>
@@ -61393,7 +61390,7 @@
         <v>155</v>
       </c>
       <c r="H461" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -61628,7 +61625,7 @@
         <v>155</v>
       </c>
       <c r="H463" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I463">
         <v>4</v>
@@ -61765,7 +61762,7 @@
         <v>155</v>
       </c>
       <c r="H464" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I464">
         <v>2</v>
@@ -62247,7 +62244,7 @@
         <v>155</v>
       </c>
       <c r="H468" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I468">
         <v>5</v>
@@ -63116,7 +63113,7 @@
         <v>155</v>
       </c>
       <c r="H475" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M475">
         <v>5</v>
@@ -63854,7 +63851,7 @@
         <v>77</v>
       </c>
       <c r="C481" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D481" t="s">
         <v>79</v>
@@ -64140,7 +64137,7 @@
         <v>151</v>
       </c>
       <c r="G483" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K483">
         <v>5</v>
@@ -64387,7 +64384,7 @@
         <v>155</v>
       </c>
       <c r="H485" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I485">
         <v>4</v>
@@ -64512,7 +64509,7 @@
         <v>151</v>
       </c>
       <c r="G486" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H486" t="s">
         <v>245</v>
@@ -64780,7 +64777,7 @@
         <v>77</v>
       </c>
       <c r="C488" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D488" t="s">
         <v>79</v>
@@ -65197,7 +65194,7 @@
         <v>77</v>
       </c>
       <c r="C491" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D491" t="s">
         <v>150</v>
@@ -65355,7 +65352,7 @@
         <v>155</v>
       </c>
       <c r="H492" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I492">
         <v>7</v>
@@ -65501,7 +65498,7 @@
         <v>155</v>
       </c>
       <c r="H493" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I493">
         <v>7</v>
@@ -65909,7 +65906,7 @@
         <v>155</v>
       </c>
       <c r="H496" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K496">
         <v>6</v>
@@ -66323,7 +66320,7 @@
         <v>155</v>
       </c>
       <c r="H499" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I499">
         <v>4</v>
@@ -66475,7 +66472,7 @@
         <v>155</v>
       </c>
       <c r="H500" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I500">
         <v>5</v>
@@ -66615,7 +66612,7 @@
         <v>155</v>
       </c>
       <c r="H501" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I501">
         <v>6</v>
@@ -66758,7 +66755,7 @@
         <v>155</v>
       </c>
       <c r="H502" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I502">
         <v>3</v>
@@ -67035,7 +67032,7 @@
         <v>77</v>
       </c>
       <c r="C504" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D504" t="s">
         <v>150</v>
@@ -67050,7 +67047,7 @@
         <v>155</v>
       </c>
       <c r="H504" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I504">
         <v>3</v>
@@ -67175,7 +67172,7 @@
         <v>77</v>
       </c>
       <c r="C505" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D505" t="s">
         <v>79</v>
@@ -67771,7 +67768,7 @@
         <v>203</v>
       </c>
       <c r="H509" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L509">
         <v>5</v>
@@ -68137,7 +68134,7 @@
         <v>77</v>
       </c>
       <c r="C512" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D512" t="s">
         <v>150</v>
@@ -68268,7 +68265,7 @@
         <v>77</v>
       </c>
       <c r="C513" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D513" t="s">
         <v>79</v>
@@ -68494,7 +68491,7 @@
         <v>77</v>
       </c>
       <c r="C515" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D515" t="s">
         <v>79</v>
@@ -68509,7 +68506,7 @@
         <v>203</v>
       </c>
       <c r="H515" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X515">
         <v>6</v>
@@ -68985,7 +68982,7 @@
         <v>77</v>
       </c>
       <c r="C519" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D519" t="s">
         <v>150</v>
@@ -69375,7 +69372,7 @@
         <v>203</v>
       </c>
       <c r="H522" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K522">
         <v>3</v>
@@ -69506,7 +69503,7 @@
         <v>203</v>
       </c>
       <c r="H523" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I523">
         <v>4</v>
@@ -69759,7 +69756,7 @@
         <v>203</v>
       </c>
       <c r="H525" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L525">
         <v>2</v>
@@ -70158,7 +70155,7 @@
         <v>203</v>
       </c>
       <c r="H528" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L528">
         <v>5</v>
@@ -70280,7 +70277,7 @@
         <v>203</v>
       </c>
       <c r="H529" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U529">
         <v>3</v>
@@ -70393,7 +70390,7 @@
         <v>203</v>
       </c>
       <c r="H530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K530">
         <v>3</v>
@@ -70878,7 +70875,7 @@
         <v>203</v>
       </c>
       <c r="H534" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I534">
         <v>5</v>
@@ -71164,7 +71161,7 @@
         <v>77</v>
       </c>
       <c r="C536" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D536" t="s">
         <v>79</v>
@@ -71462,7 +71459,7 @@
         <v>77</v>
       </c>
       <c r="C538" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D538" t="s">
         <v>79</v>
@@ -71614,7 +71611,7 @@
         <v>203</v>
       </c>
       <c r="H539" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I539">
         <v>4</v>
@@ -71897,7 +71894,7 @@
         <v>77</v>
       </c>
       <c r="C541" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D541" t="s">
         <v>79</v>
@@ -71909,7 +71906,7 @@
         <v>151</v>
       </c>
       <c r="G541" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H541" t="s">
         <v>204</v>
@@ -73339,10 +73336,10 @@
         <v>151</v>
       </c>
       <c r="G551" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H551" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K551">
         <v>2</v>
@@ -73950,7 +73947,7 @@
         <v>203</v>
       </c>
       <c r="H555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I555">
         <v>4</v>
@@ -74230,7 +74227,7 @@
         <v>77</v>
       </c>
       <c r="C557" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D557" t="s">
         <v>79</v>
@@ -74385,7 +74382,7 @@
         <v>203</v>
       </c>
       <c r="H558" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -74665,7 +74662,7 @@
         <v>151</v>
       </c>
       <c r="G560" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H560" t="s">
         <v>245</v>
@@ -74814,7 +74811,7 @@
         <v>203</v>
       </c>
       <c r="H561" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L561">
         <v>4</v>
@@ -74963,7 +74960,7 @@
         <v>203</v>
       </c>
       <c r="H562" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M562">
         <v>6</v>
@@ -75812,7 +75809,7 @@
         <v>77</v>
       </c>
       <c r="C568" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D568" t="s">
         <v>79</v>
@@ -75827,7 +75824,7 @@
         <v>203</v>
       </c>
       <c r="H568" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U568">
         <v>2</v>
@@ -76113,7 +76110,7 @@
         <v>203</v>
       </c>
       <c r="H570" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L570">
         <v>6</v>
@@ -76560,7 +76557,7 @@
         <v>203</v>
       </c>
       <c r="H573" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L573">
         <v>6</v>
@@ -76709,7 +76706,7 @@
         <v>166</v>
       </c>
       <c r="H574" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="575" spans="1:77" x14ac:dyDescent="0.45">
@@ -76887,7 +76884,7 @@
         <v>203</v>
       </c>
       <c r="H576" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L576">
         <v>9</v>
@@ -77012,7 +77009,7 @@
         <v>77</v>
       </c>
       <c r="C577" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D577" t="s">
         <v>150</v>
@@ -77316,7 +77313,7 @@
         <v>77</v>
       </c>
       <c r="C579" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D579" t="s">
         <v>150</v>
@@ -77593,7 +77590,7 @@
         <v>77</v>
       </c>
       <c r="C581" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D581" t="s">
         <v>79</v>
@@ -77715,7 +77712,7 @@
         <v>154</v>
       </c>
       <c r="D582" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E582">
         <v>9</v>
@@ -77837,7 +77834,7 @@
         <v>77</v>
       </c>
       <c r="C583" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D583" t="s">
         <v>79</v>
@@ -78117,7 +78114,7 @@
         <v>154</v>
       </c>
       <c r="D585" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E585">
         <v>1</v>
@@ -78126,7 +78123,7 @@
         <v>151</v>
       </c>
       <c r="G585" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H585" t="s">
         <v>245</v>
@@ -78355,7 +78352,7 @@
         <v>77</v>
       </c>
       <c r="C587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D587" t="s">
         <v>150</v>
@@ -78489,7 +78486,7 @@
         <v>77</v>
       </c>
       <c r="C588" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D588" t="s">
         <v>79</v>
@@ -78635,7 +78632,7 @@
         <v>203</v>
       </c>
       <c r="H589" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I589">
         <v>3</v>
@@ -79046,10 +79043,10 @@
         <v>77</v>
       </c>
       <c r="C592" t="s">
+        <v>321</v>
+      </c>
+      <c r="D592" t="s">
         <v>322</v>
-      </c>
-      <c r="D592" t="s">
-        <v>323</v>
       </c>
       <c r="E592">
         <v>6</v>
@@ -79174,7 +79171,7 @@
         <v>77</v>
       </c>
       <c r="C593" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D593" t="s">
         <v>79</v>
@@ -79189,7 +79186,7 @@
         <v>203</v>
       </c>
       <c r="H593" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I593">
         <v>4</v>
@@ -79308,7 +79305,7 @@
         <v>78</v>
       </c>
       <c r="D594" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E594">
         <v>3</v>
@@ -79573,13 +79570,13 @@
         <v>172</v>
       </c>
       <c r="D596" t="s">
+        <v>322</v>
+      </c>
+      <c r="E596">
+        <v>5</v>
+      </c>
+      <c r="G596" t="s">
         <v>323</v>
-      </c>
-      <c r="E596">
-        <v>5</v>
-      </c>
-      <c r="G596" t="s">
-        <v>324</v>
       </c>
       <c r="L596">
         <v>6</v>
@@ -79704,7 +79701,7 @@
         <v>241</v>
       </c>
       <c r="D597" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E597">
         <v>2</v>
@@ -79826,7 +79823,7 @@
         <v>164</v>
       </c>
       <c r="D598" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E598">
         <v>2</v>
@@ -79966,10 +79963,10 @@
         <v>77</v>
       </c>
       <c r="C599" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D599" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E599">
         <v>8</v>
@@ -80106,7 +80103,7 @@
         <v>246</v>
       </c>
       <c r="D600" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E600">
         <v>5</v>
@@ -80249,7 +80246,7 @@
         <v>164</v>
       </c>
       <c r="D601" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E601">
         <v>9</v>
@@ -80377,7 +80374,7 @@
         <v>172</v>
       </c>
       <c r="D602" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E602">
         <v>3</v>
@@ -80669,7 +80666,7 @@
         <v>203</v>
       </c>
       <c r="H604" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I604">
         <v>4</v>
@@ -80785,7 +80782,7 @@
         <v>154</v>
       </c>
       <c r="D605" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E605">
         <v>1</v>
@@ -80794,7 +80791,7 @@
         <v>80</v>
       </c>
       <c r="G605" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K605">
         <v>3</v>
@@ -81181,7 +81178,7 @@
         <v>154</v>
       </c>
       <c r="D608" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E608">
         <v>1</v>
@@ -81601,10 +81598,10 @@
         <v>77</v>
       </c>
       <c r="C611" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D611" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E611">
         <v>4</v>
@@ -81738,7 +81735,7 @@
         <v>154</v>
       </c>
       <c r="D612" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E612">
         <v>4</v>
@@ -81878,10 +81875,10 @@
         <v>77</v>
       </c>
       <c r="C613" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D613" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E613">
         <v>3</v>
@@ -82036,7 +82033,7 @@
         <v>203</v>
       </c>
       <c r="H614" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I614">
         <v>5</v>
@@ -82155,7 +82152,7 @@
         <v>154</v>
       </c>
       <c r="D615" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E615">
         <v>2</v>
@@ -82167,7 +82164,7 @@
         <v>203</v>
       </c>
       <c r="H615" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K615">
         <v>5</v>
@@ -82280,7 +82277,7 @@
         <v>219</v>
       </c>
       <c r="D616" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E616">
         <v>3</v>
@@ -82405,7 +82402,7 @@
         <v>149</v>
       </c>
       <c r="D617" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E617">
         <v>10</v>
@@ -82548,7 +82545,7 @@
         <v>154</v>
       </c>
       <c r="D618" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E618">
         <v>3</v>
@@ -82676,10 +82673,10 @@
         <v>77</v>
       </c>
       <c r="C619" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D619" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E619">
         <v>4</v>
@@ -82828,7 +82825,7 @@
         <v>221</v>
       </c>
       <c r="D620" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E620">
         <v>3</v>
@@ -82956,7 +82953,7 @@
         <v>154</v>
       </c>
       <c r="D621" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E621">
         <v>2</v>
@@ -83212,13 +83209,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -83226,7 +83223,7 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
@@ -83237,7 +83234,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -83248,7 +83245,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
